--- a/OEC_SR_ServiceRequests_Dispatcher.2.0.2 (List)/Data/Config.xlsx
+++ b/OEC_SR_ServiceRequests_Dispatcher.2.0.2 (List)/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\561625\Documents\GitHub\UiPath-Work\OEC_SR_ServiceRequests_Dispatcher.2.0.2 (List)\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67033866-1AD6-45A8-B206-0578BFBF1116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D84D718-C22D-4C41-BA4C-1CC3D7811ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26370" yWindow="-240" windowWidth="14025" windowHeight="8355" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -190,16 +190,16 @@
     <t>Path to dummy input file for transaction process ( non-orchestrator queue method)</t>
   </si>
   <si>
-    <t>GermanSales_Dispatcher_ListURL</t>
-  </si>
-  <si>
-    <t>URL for SharePoint List (GermanSales)</t>
-  </si>
-  <si>
-    <t>GermanSales_Dispatcher_ListName</t>
-  </si>
-  <si>
-    <t>Name for SharePoint List (GermanSales)</t>
+    <t>GermanSales_ListName</t>
+  </si>
+  <si>
+    <t>GermanSales_ListURL</t>
+  </si>
+  <si>
+    <t>Name of the SharePoint list to use as lookup (GermanSales)</t>
+  </si>
+  <si>
+    <t>URL of the SharePoint list to use as lookup (GermanSales)</t>
   </si>
 </sst>
 </file>
@@ -2771,10 +2771,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2947,30 +2947,30 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
-        <v>55</v>
+      <c r="D11" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
+      <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3959,8 +3959,6 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
